--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-risk-factor-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-risk-factor-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,7 +109,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-risk-factor-snomed-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-risk-factor-snomed-vs</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-problems-uv-ips</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -179,12 +178,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-problems-uv-ips</t>
   </si>
 </sst>
 </file>
@@ -580,31 +573,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>